--- a/src/test/java/selenium/com/data/TestData.xlsx
+++ b/src/test/java/selenium/com/data/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Frameworks\SeleniumFramework\src\test\java\selenium\com\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F528E1-AA6B-4081-8851-6BAE4CCED19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D1A3A3-65A5-4422-BE50-77712BB25761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{81BA2103-5792-4A3B-BB8B-1853AC18CFFB}"/>
+    <workbookView xWindow="2280" yWindow="1240" windowWidth="16330" windowHeight="10760" xr2:uid="{81BA2103-5792-4A3B-BB8B-1853AC18CFFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -528,7 +528,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>

--- a/src/test/java/selenium/com/data/TestData.xlsx
+++ b/src/test/java/selenium/com/data/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Frameworks\SeleniumFramework\src\test\java\selenium\com\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D1A3A3-65A5-4422-BE50-77712BB25761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4E62D0-1045-4F7A-8315-25F38FAD6FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1240" windowWidth="16330" windowHeight="10760" xr2:uid="{81BA2103-5792-4A3B-BB8B-1853AC18CFFB}"/>
+    <workbookView xWindow="2870" yWindow="0" windowWidth="16330" windowHeight="10760" xr2:uid="{81BA2103-5792-4A3B-BB8B-1853AC18CFFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>Congratulations! Your order has been confirmed.</t>
   </si>
   <si>
-    <t>Threads &amp; Flowers: Designer Wall Piece</t>
+    <t>The Mayan Cow</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
